--- a/apis/excelSheets/dht.xlsx
+++ b/apis/excelSheets/dht.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="394">
   <si>
     <t>4/16/2023</t>
   </si>
@@ -596,6 +596,606 @@
   </si>
   <si>
     <t>7:20:42 PM</t>
+  </si>
+  <si>
+    <t>4/25/2023</t>
+  </si>
+  <si>
+    <t>10:40:23 AM</t>
+  </si>
+  <si>
+    <t>10:40:28 AM</t>
+  </si>
+  <si>
+    <t>10:40:33 AM</t>
+  </si>
+  <si>
+    <t>10:42:27 AM</t>
+  </si>
+  <si>
+    <t>10:42:32 AM</t>
+  </si>
+  <si>
+    <t>10:44:59 AM</t>
+  </si>
+  <si>
+    <t>10:45:04 AM</t>
+  </si>
+  <si>
+    <t>10:45:10 AM</t>
+  </si>
+  <si>
+    <t>10:45:15 AM</t>
+  </si>
+  <si>
+    <t>10:45:20 AM</t>
+  </si>
+  <si>
+    <t>10:45:25 AM</t>
+  </si>
+  <si>
+    <t>10:45:31 AM</t>
+  </si>
+  <si>
+    <t>10:45:36 AM</t>
+  </si>
+  <si>
+    <t>10:45:41 AM</t>
+  </si>
+  <si>
+    <t>10:45:46 AM</t>
+  </si>
+  <si>
+    <t>10:45:51 AM</t>
+  </si>
+  <si>
+    <t>10:45:57 AM</t>
+  </si>
+  <si>
+    <t>10:46:02 AM</t>
+  </si>
+  <si>
+    <t>10:46:07 AM</t>
+  </si>
+  <si>
+    <t>10:46:13 AM</t>
+  </si>
+  <si>
+    <t>10:46:18 AM</t>
+  </si>
+  <si>
+    <t>10:46:23 AM</t>
+  </si>
+  <si>
+    <t>10:46:28 AM</t>
+  </si>
+  <si>
+    <t>10:46:33 AM</t>
+  </si>
+  <si>
+    <t>10:46:38 AM</t>
+  </si>
+  <si>
+    <t>10:46:44 AM</t>
+  </si>
+  <si>
+    <t>10:46:49 AM</t>
+  </si>
+  <si>
+    <t>10:46:54 AM</t>
+  </si>
+  <si>
+    <t>10:46:59 AM</t>
+  </si>
+  <si>
+    <t>10:47:04 AM</t>
+  </si>
+  <si>
+    <t>10:47:10 AM</t>
+  </si>
+  <si>
+    <t>10:47:15 AM</t>
+  </si>
+  <si>
+    <t>10:47:20 AM</t>
+  </si>
+  <si>
+    <t>10:47:25 AM</t>
+  </si>
+  <si>
+    <t>10:47:30 AM</t>
+  </si>
+  <si>
+    <t>10:47:35 AM</t>
+  </si>
+  <si>
+    <t>10:47:41 AM</t>
+  </si>
+  <si>
+    <t>10:47:46 AM</t>
+  </si>
+  <si>
+    <t>10:47:51 AM</t>
+  </si>
+  <si>
+    <t>10:47:56 AM</t>
+  </si>
+  <si>
+    <t>10:48:02 AM</t>
+  </si>
+  <si>
+    <t>10:48:07 AM</t>
+  </si>
+  <si>
+    <t>10:48:12 AM</t>
+  </si>
+  <si>
+    <t>10:48:17 AM</t>
+  </si>
+  <si>
+    <t>10:48:22 AM</t>
+  </si>
+  <si>
+    <t>10:48:28 AM</t>
+  </si>
+  <si>
+    <t>10:48:33 AM</t>
+  </si>
+  <si>
+    <t>10:48:38 AM</t>
+  </si>
+  <si>
+    <t>10:48:43 AM</t>
+  </si>
+  <si>
+    <t>10:48:48 AM</t>
+  </si>
+  <si>
+    <t>10:48:54 AM</t>
+  </si>
+  <si>
+    <t>10:48:59 AM</t>
+  </si>
+  <si>
+    <t>10:49:04 AM</t>
+  </si>
+  <si>
+    <t>10:49:09 AM</t>
+  </si>
+  <si>
+    <t>10:49:15 AM</t>
+  </si>
+  <si>
+    <t>10:49:20 AM</t>
+  </si>
+  <si>
+    <t>10:49:25 AM</t>
+  </si>
+  <si>
+    <t>10:49:30 AM</t>
+  </si>
+  <si>
+    <t>10:49:35 AM</t>
+  </si>
+  <si>
+    <t>10:49:41 AM</t>
+  </si>
+  <si>
+    <t>10:49:46 AM</t>
+  </si>
+  <si>
+    <t>10:49:51 AM</t>
+  </si>
+  <si>
+    <t>10:49:57 AM</t>
+  </si>
+  <si>
+    <t>10:50:02 AM</t>
+  </si>
+  <si>
+    <t>10:50:07 AM</t>
+  </si>
+  <si>
+    <t>10:50:13 AM</t>
+  </si>
+  <si>
+    <t>10:50:18 AM</t>
+  </si>
+  <si>
+    <t>10:50:23 AM</t>
+  </si>
+  <si>
+    <t>10:50:29 AM</t>
+  </si>
+  <si>
+    <t>10:50:34 AM</t>
+  </si>
+  <si>
+    <t>10:50:39 AM</t>
+  </si>
+  <si>
+    <t>10:50:44 AM</t>
+  </si>
+  <si>
+    <t>10:50:50 AM</t>
+  </si>
+  <si>
+    <t>10:50:55 AM</t>
+  </si>
+  <si>
+    <t>10:51:00 AM</t>
+  </si>
+  <si>
+    <t>10:51:05 AM</t>
+  </si>
+  <si>
+    <t>10:51:11 AM</t>
+  </si>
+  <si>
+    <t>10:51:16 AM</t>
+  </si>
+  <si>
+    <t>10:51:21 AM</t>
+  </si>
+  <si>
+    <t>10:51:26 AM</t>
+  </si>
+  <si>
+    <t>10:51:32 AM</t>
+  </si>
+  <si>
+    <t>10:51:37 AM</t>
+  </si>
+  <si>
+    <t>10:51:42 AM</t>
+  </si>
+  <si>
+    <t>10:51:48 AM</t>
+  </si>
+  <si>
+    <t>10:51:53 AM</t>
+  </si>
+  <si>
+    <t>10:51:58 AM</t>
+  </si>
+  <si>
+    <t>10:52:04 AM</t>
+  </si>
+  <si>
+    <t>10:52:09 AM</t>
+  </si>
+  <si>
+    <t>10:52:14 AM</t>
+  </si>
+  <si>
+    <t>10:52:20 AM</t>
+  </si>
+  <si>
+    <t>10:52:25 AM</t>
+  </si>
+  <si>
+    <t>10:53:38 AM</t>
+  </si>
+  <si>
+    <t>10:53:43 AM</t>
+  </si>
+  <si>
+    <t>10:53:48 AM</t>
+  </si>
+  <si>
+    <t>10:53:53 AM</t>
+  </si>
+  <si>
+    <t>10:53:58 AM</t>
+  </si>
+  <si>
+    <t>10:54:04 AM</t>
+  </si>
+  <si>
+    <t>10:54:09 AM</t>
+  </si>
+  <si>
+    <t>10:54:14 AM</t>
+  </si>
+  <si>
+    <t>10:54:19 AM</t>
+  </si>
+  <si>
+    <t>10:54:24 AM</t>
+  </si>
+  <si>
+    <t>10:54:30 AM</t>
+  </si>
+  <si>
+    <t>10:54:35 AM</t>
+  </si>
+  <si>
+    <t>10:54:40 AM</t>
+  </si>
+  <si>
+    <t>10:54:46 AM</t>
+  </si>
+  <si>
+    <t>10:54:51 AM</t>
+  </si>
+  <si>
+    <t>10:54:56 AM</t>
+  </si>
+  <si>
+    <t>10:55:02 AM</t>
+  </si>
+  <si>
+    <t>10:55:07 AM</t>
+  </si>
+  <si>
+    <t>10:55:12 AM</t>
+  </si>
+  <si>
+    <t>10:55:18 AM</t>
+  </si>
+  <si>
+    <t>10:55:23 AM</t>
+  </si>
+  <si>
+    <t>10:55:28 AM</t>
+  </si>
+  <si>
+    <t>10:55:34 AM</t>
+  </si>
+  <si>
+    <t>10:55:39 AM</t>
+  </si>
+  <si>
+    <t>10:55:44 AM</t>
+  </si>
+  <si>
+    <t>10:55:49 AM</t>
+  </si>
+  <si>
+    <t>10:55:54 AM</t>
+  </si>
+  <si>
+    <t>10:56:00 AM</t>
+  </si>
+  <si>
+    <t>10:56:05 AM</t>
+  </si>
+  <si>
+    <t>10:56:10 AM</t>
+  </si>
+  <si>
+    <t>10:56:15 AM</t>
+  </si>
+  <si>
+    <t>10:56:21 AM</t>
+  </si>
+  <si>
+    <t>10:56:26 AM</t>
+  </si>
+  <si>
+    <t>10:56:31 AM</t>
+  </si>
+  <si>
+    <t>10:56:36 AM</t>
+  </si>
+  <si>
+    <t>10:56:41 AM</t>
+  </si>
+  <si>
+    <t>10:56:46 AM</t>
+  </si>
+  <si>
+    <t>10:56:52 AM</t>
+  </si>
+  <si>
+    <t>10:56:57 AM</t>
+  </si>
+  <si>
+    <t>10:57:02 AM</t>
+  </si>
+  <si>
+    <t>10:57:07 AM</t>
+  </si>
+  <si>
+    <t>10:57:13 AM</t>
+  </si>
+  <si>
+    <t>10:57:18 AM</t>
+  </si>
+  <si>
+    <t>10:57:23 AM</t>
+  </si>
+  <si>
+    <t>10:57:28 AM</t>
+  </si>
+  <si>
+    <t>10:57:33 AM</t>
+  </si>
+  <si>
+    <t>10:57:39 AM</t>
+  </si>
+  <si>
+    <t>10:57:44 AM</t>
+  </si>
+  <si>
+    <t>10:57:52 AM</t>
+  </si>
+  <si>
+    <t>10:57:58 AM</t>
+  </si>
+  <si>
+    <t>10:58:03 AM</t>
+  </si>
+  <si>
+    <t>10:58:08 AM</t>
+  </si>
+  <si>
+    <t>10:58:13 AM</t>
+  </si>
+  <si>
+    <t>10:58:19 AM</t>
+  </si>
+  <si>
+    <t>10:58:24 AM</t>
+  </si>
+  <si>
+    <t>10:58:29 AM</t>
+  </si>
+  <si>
+    <t>10:58:34 AM</t>
+  </si>
+  <si>
+    <t>10:58:39 AM</t>
+  </si>
+  <si>
+    <t>10:58:44 AM</t>
+  </si>
+  <si>
+    <t>10:58:49 AM</t>
+  </si>
+  <si>
+    <t>10:58:55 AM</t>
+  </si>
+  <si>
+    <t>10:59:00 AM</t>
+  </si>
+  <si>
+    <t>10:59:05 AM</t>
+  </si>
+  <si>
+    <t>10:59:11 AM</t>
+  </si>
+  <si>
+    <t>10:59:16 AM</t>
+  </si>
+  <si>
+    <t>10:59:21 AM</t>
+  </si>
+  <si>
+    <t>10:59:26 AM</t>
+  </si>
+  <si>
+    <t>10:59:31 AM</t>
+  </si>
+  <si>
+    <t>10:59:37 AM</t>
+  </si>
+  <si>
+    <t>10:59:42 AM</t>
+  </si>
+  <si>
+    <t>10:59:47 AM</t>
+  </si>
+  <si>
+    <t>10:59:52 AM</t>
+  </si>
+  <si>
+    <t>10:59:58 AM</t>
+  </si>
+  <si>
+    <t>11:00:03 AM</t>
+  </si>
+  <si>
+    <t>11:00:08 AM</t>
+  </si>
+  <si>
+    <t>11:00:14 AM</t>
+  </si>
+  <si>
+    <t>11:00:19 AM</t>
+  </si>
+  <si>
+    <t>11:00:24 AM</t>
+  </si>
+  <si>
+    <t>11:00:29 AM</t>
+  </si>
+  <si>
+    <t>11:00:35 AM</t>
+  </si>
+  <si>
+    <t>11:00:40 AM</t>
+  </si>
+  <si>
+    <t>11:00:45 AM</t>
+  </si>
+  <si>
+    <t>11:00:50 AM</t>
+  </si>
+  <si>
+    <t>11:00:55 AM</t>
+  </si>
+  <si>
+    <t>11:01:01 AM</t>
+  </si>
+  <si>
+    <t>11:01:06 AM</t>
+  </si>
+  <si>
+    <t>11:01:11 AM</t>
+  </si>
+  <si>
+    <t>11:01:16 AM</t>
+  </si>
+  <si>
+    <t>11:01:21 AM</t>
+  </si>
+  <si>
+    <t>11:01:26 AM</t>
+  </si>
+  <si>
+    <t>11:01:32 AM</t>
+  </si>
+  <si>
+    <t>11:01:37 AM</t>
+  </si>
+  <si>
+    <t>11:01:42 AM</t>
+  </si>
+  <si>
+    <t>11:01:47 AM</t>
+  </si>
+  <si>
+    <t>11:01:53 AM</t>
+  </si>
+  <si>
+    <t>11:01:58 AM</t>
+  </si>
+  <si>
+    <t>11:02:03 AM</t>
+  </si>
+  <si>
+    <t>11:02:08 AM</t>
+  </si>
+  <si>
+    <t>11:02:13 AM</t>
+  </si>
+  <si>
+    <t>11:02:19 AM</t>
+  </si>
+  <si>
+    <t>11:02:24 AM</t>
+  </si>
+  <si>
+    <t>11:02:29 AM</t>
+  </si>
+  <si>
+    <t>11:02:34 AM</t>
+  </si>
+  <si>
+    <t>12:06:24 PM</t>
+  </si>
+  <si>
+    <t>12:06:30 PM</t>
+  </si>
+  <si>
+    <t>12:06:35 PM</t>
+  </si>
+  <si>
+    <t>12:06:40 PM</t>
+  </si>
+  <si>
+    <t>12:06:46 PM</t>
   </si>
 </sst>
 </file>
@@ -913,7 +1513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D561"/>
+  <dimension ref="A1:D760"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F547" sqref="F547"/>
@@ -8779,6 +9379,2792 @@
         <v>42</v>
       </c>
     </row>
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>194</v>
+      </c>
+      <c r="B562" t="s">
+        <v>195</v>
+      </c>
+      <c r="C562">
+        <v>31.4</v>
+      </c>
+      <c r="D562">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>194</v>
+      </c>
+      <c r="B563" t="s">
+        <v>196</v>
+      </c>
+      <c r="C563">
+        <v>31</v>
+      </c>
+      <c r="D563">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>194</v>
+      </c>
+      <c r="B564" t="s">
+        <v>197</v>
+      </c>
+      <c r="C564">
+        <v>30.5</v>
+      </c>
+      <c r="D564">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>194</v>
+      </c>
+      <c r="B565" t="s">
+        <v>198</v>
+      </c>
+      <c r="C565">
+        <v>29.5</v>
+      </c>
+      <c r="D565">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>194</v>
+      </c>
+      <c r="B566" t="s">
+        <v>199</v>
+      </c>
+      <c r="C566">
+        <v>29.5</v>
+      </c>
+      <c r="D566">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>194</v>
+      </c>
+      <c r="B567" t="s">
+        <v>200</v>
+      </c>
+      <c r="C567">
+        <v>29.4</v>
+      </c>
+      <c r="D567">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>194</v>
+      </c>
+      <c r="B568" t="s">
+        <v>201</v>
+      </c>
+      <c r="C568">
+        <v>29.4</v>
+      </c>
+      <c r="D568">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>194</v>
+      </c>
+      <c r="B569" t="s">
+        <v>202</v>
+      </c>
+      <c r="C569">
+        <v>29.4</v>
+      </c>
+      <c r="D569">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>194</v>
+      </c>
+      <c r="B570" t="s">
+        <v>203</v>
+      </c>
+      <c r="C570">
+        <v>29.4</v>
+      </c>
+      <c r="D570">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>194</v>
+      </c>
+      <c r="B571" t="s">
+        <v>204</v>
+      </c>
+      <c r="C571">
+        <v>29.4</v>
+      </c>
+      <c r="D571">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>194</v>
+      </c>
+      <c r="B572" t="s">
+        <v>205</v>
+      </c>
+      <c r="C572">
+        <v>29.4</v>
+      </c>
+      <c r="D572">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>194</v>
+      </c>
+      <c r="B573" t="s">
+        <v>206</v>
+      </c>
+      <c r="C573">
+        <v>29.4</v>
+      </c>
+      <c r="D573">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>194</v>
+      </c>
+      <c r="B574" t="s">
+        <v>207</v>
+      </c>
+      <c r="C574">
+        <v>29.4</v>
+      </c>
+      <c r="D574">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>194</v>
+      </c>
+      <c r="B575" t="s">
+        <v>208</v>
+      </c>
+      <c r="C575">
+        <v>29.4</v>
+      </c>
+      <c r="D575">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>194</v>
+      </c>
+      <c r="B576" t="s">
+        <v>209</v>
+      </c>
+      <c r="C576">
+        <v>29.4</v>
+      </c>
+      <c r="D576">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>194</v>
+      </c>
+      <c r="B577" t="s">
+        <v>210</v>
+      </c>
+      <c r="C577">
+        <v>29.4</v>
+      </c>
+      <c r="D577">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>194</v>
+      </c>
+      <c r="B578" t="s">
+        <v>211</v>
+      </c>
+      <c r="C578">
+        <v>29.4</v>
+      </c>
+      <c r="D578">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>194</v>
+      </c>
+      <c r="B579" t="s">
+        <v>212</v>
+      </c>
+      <c r="C579">
+        <v>29.4</v>
+      </c>
+      <c r="D579">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>194</v>
+      </c>
+      <c r="B580" t="s">
+        <v>213</v>
+      </c>
+      <c r="C580">
+        <v>29.5</v>
+      </c>
+      <c r="D580">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>194</v>
+      </c>
+      <c r="B581" t="s">
+        <v>214</v>
+      </c>
+      <c r="C581">
+        <v>29.5</v>
+      </c>
+      <c r="D581">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>194</v>
+      </c>
+      <c r="B582" t="s">
+        <v>215</v>
+      </c>
+      <c r="C582">
+        <v>29.5</v>
+      </c>
+      <c r="D582">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>194</v>
+      </c>
+      <c r="B583" t="s">
+        <v>216</v>
+      </c>
+      <c r="C583">
+        <v>29.5</v>
+      </c>
+      <c r="D583">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>194</v>
+      </c>
+      <c r="B584" t="s">
+        <v>217</v>
+      </c>
+      <c r="C584">
+        <v>29.5</v>
+      </c>
+      <c r="D584">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>194</v>
+      </c>
+      <c r="B585" t="s">
+        <v>218</v>
+      </c>
+      <c r="C585">
+        <v>29.5</v>
+      </c>
+      <c r="D585">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>194</v>
+      </c>
+      <c r="B586" t="s">
+        <v>219</v>
+      </c>
+      <c r="C586">
+        <v>29.5</v>
+      </c>
+      <c r="D586">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>194</v>
+      </c>
+      <c r="B587" t="s">
+        <v>220</v>
+      </c>
+      <c r="C587">
+        <v>29.6</v>
+      </c>
+      <c r="D587">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>194</v>
+      </c>
+      <c r="B588" t="s">
+        <v>221</v>
+      </c>
+      <c r="C588">
+        <v>29.6</v>
+      </c>
+      <c r="D588">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>194</v>
+      </c>
+      <c r="B589" t="s">
+        <v>222</v>
+      </c>
+      <c r="C589">
+        <v>29.6</v>
+      </c>
+      <c r="D589">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>194</v>
+      </c>
+      <c r="B590" t="s">
+        <v>223</v>
+      </c>
+      <c r="C590">
+        <v>29.6</v>
+      </c>
+      <c r="D590">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>194</v>
+      </c>
+      <c r="B591" t="s">
+        <v>224</v>
+      </c>
+      <c r="C591">
+        <v>29.6</v>
+      </c>
+      <c r="D591">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>194</v>
+      </c>
+      <c r="B592" t="s">
+        <v>225</v>
+      </c>
+      <c r="C592">
+        <v>29.6</v>
+      </c>
+      <c r="D592">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>194</v>
+      </c>
+      <c r="B593" t="s">
+        <v>226</v>
+      </c>
+      <c r="C593">
+        <v>29.6</v>
+      </c>
+      <c r="D593">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>194</v>
+      </c>
+      <c r="B594" t="s">
+        <v>227</v>
+      </c>
+      <c r="C594">
+        <v>29.7</v>
+      </c>
+      <c r="D594">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>194</v>
+      </c>
+      <c r="B595" t="s">
+        <v>228</v>
+      </c>
+      <c r="C595">
+        <v>29.7</v>
+      </c>
+      <c r="D595">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>194</v>
+      </c>
+      <c r="B596" t="s">
+        <v>229</v>
+      </c>
+      <c r="C596">
+        <v>29.7</v>
+      </c>
+      <c r="D596">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>194</v>
+      </c>
+      <c r="B597" t="s">
+        <v>230</v>
+      </c>
+      <c r="C597">
+        <v>29.7</v>
+      </c>
+      <c r="D597">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>194</v>
+      </c>
+      <c r="B598" t="s">
+        <v>231</v>
+      </c>
+      <c r="C598">
+        <v>29.7</v>
+      </c>
+      <c r="D598">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>194</v>
+      </c>
+      <c r="B599" t="s">
+        <v>232</v>
+      </c>
+      <c r="C599">
+        <v>29.7</v>
+      </c>
+      <c r="D599">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>194</v>
+      </c>
+      <c r="B600" t="s">
+        <v>233</v>
+      </c>
+      <c r="C600">
+        <v>29.7</v>
+      </c>
+      <c r="D600">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>194</v>
+      </c>
+      <c r="B601" t="s">
+        <v>234</v>
+      </c>
+      <c r="C601">
+        <v>29.8</v>
+      </c>
+      <c r="D601">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>194</v>
+      </c>
+      <c r="B602" t="s">
+        <v>235</v>
+      </c>
+      <c r="C602">
+        <v>29.8</v>
+      </c>
+      <c r="D602">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>194</v>
+      </c>
+      <c r="B603" t="s">
+        <v>236</v>
+      </c>
+      <c r="C603">
+        <v>29.8</v>
+      </c>
+      <c r="D603">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>194</v>
+      </c>
+      <c r="B604" t="s">
+        <v>237</v>
+      </c>
+      <c r="C604">
+        <v>29.8</v>
+      </c>
+      <c r="D604">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>194</v>
+      </c>
+      <c r="B605" t="s">
+        <v>238</v>
+      </c>
+      <c r="C605">
+        <v>29.8</v>
+      </c>
+      <c r="D605">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>194</v>
+      </c>
+      <c r="B606" t="s">
+        <v>239</v>
+      </c>
+      <c r="C606">
+        <v>29.8</v>
+      </c>
+      <c r="D606">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>194</v>
+      </c>
+      <c r="B607" t="s">
+        <v>240</v>
+      </c>
+      <c r="C607">
+        <v>29.8</v>
+      </c>
+      <c r="D607">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>194</v>
+      </c>
+      <c r="B608" t="s">
+        <v>241</v>
+      </c>
+      <c r="C608">
+        <v>29.8</v>
+      </c>
+      <c r="D608">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>194</v>
+      </c>
+      <c r="B609" t="s">
+        <v>242</v>
+      </c>
+      <c r="C609">
+        <v>29.8</v>
+      </c>
+      <c r="D609">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>194</v>
+      </c>
+      <c r="B610" t="s">
+        <v>243</v>
+      </c>
+      <c r="C610">
+        <v>29.8</v>
+      </c>
+      <c r="D610">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>194</v>
+      </c>
+      <c r="B611" t="s">
+        <v>244</v>
+      </c>
+      <c r="C611">
+        <v>29.8</v>
+      </c>
+      <c r="D611">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>194</v>
+      </c>
+      <c r="B612" t="s">
+        <v>245</v>
+      </c>
+      <c r="C612">
+        <v>29.8</v>
+      </c>
+      <c r="D612">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>194</v>
+      </c>
+      <c r="B613" t="s">
+        <v>246</v>
+      </c>
+      <c r="C613">
+        <v>29.7</v>
+      </c>
+      <c r="D613">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>194</v>
+      </c>
+      <c r="B614" t="s">
+        <v>247</v>
+      </c>
+      <c r="C614">
+        <v>29.7</v>
+      </c>
+      <c r="D614">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>194</v>
+      </c>
+      <c r="B615" t="s">
+        <v>248</v>
+      </c>
+      <c r="C615">
+        <v>29.7</v>
+      </c>
+      <c r="D615">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>194</v>
+      </c>
+      <c r="B616" t="s">
+        <v>249</v>
+      </c>
+      <c r="C616">
+        <v>29.7</v>
+      </c>
+      <c r="D616">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>194</v>
+      </c>
+      <c r="B617" t="s">
+        <v>250</v>
+      </c>
+      <c r="C617">
+        <v>29.7</v>
+      </c>
+      <c r="D617">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>194</v>
+      </c>
+      <c r="B618" t="s">
+        <v>251</v>
+      </c>
+      <c r="C618">
+        <v>29.6</v>
+      </c>
+      <c r="D618">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>194</v>
+      </c>
+      <c r="B619" t="s">
+        <v>252</v>
+      </c>
+      <c r="C619">
+        <v>29.6</v>
+      </c>
+      <c r="D619">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>194</v>
+      </c>
+      <c r="B620" t="s">
+        <v>253</v>
+      </c>
+      <c r="C620">
+        <v>29.6</v>
+      </c>
+      <c r="D620">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>194</v>
+      </c>
+      <c r="B621" t="s">
+        <v>254</v>
+      </c>
+      <c r="C621">
+        <v>29.6</v>
+      </c>
+      <c r="D621">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>194</v>
+      </c>
+      <c r="B622" t="s">
+        <v>255</v>
+      </c>
+      <c r="C622">
+        <v>29.6</v>
+      </c>
+      <c r="D622">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>194</v>
+      </c>
+      <c r="B623" t="s">
+        <v>256</v>
+      </c>
+      <c r="C623">
+        <v>29.5</v>
+      </c>
+      <c r="D623">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>194</v>
+      </c>
+      <c r="B624" t="s">
+        <v>257</v>
+      </c>
+      <c r="C624">
+        <v>29.5</v>
+      </c>
+      <c r="D624">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>194</v>
+      </c>
+      <c r="B625" t="s">
+        <v>258</v>
+      </c>
+      <c r="C625">
+        <v>29.5</v>
+      </c>
+      <c r="D625">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>194</v>
+      </c>
+      <c r="B626" t="s">
+        <v>259</v>
+      </c>
+      <c r="C626">
+        <v>29.5</v>
+      </c>
+      <c r="D626">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>194</v>
+      </c>
+      <c r="B627" t="s">
+        <v>260</v>
+      </c>
+      <c r="C627">
+        <v>29.5</v>
+      </c>
+      <c r="D627">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>194</v>
+      </c>
+      <c r="B628" t="s">
+        <v>261</v>
+      </c>
+      <c r="C628">
+        <v>29.5</v>
+      </c>
+      <c r="D628">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>194</v>
+      </c>
+      <c r="B629" t="s">
+        <v>262</v>
+      </c>
+      <c r="C629">
+        <v>29.5</v>
+      </c>
+      <c r="D629">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>194</v>
+      </c>
+      <c r="B630" t="s">
+        <v>263</v>
+      </c>
+      <c r="C630">
+        <v>29.5</v>
+      </c>
+      <c r="D630">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>194</v>
+      </c>
+      <c r="B631" t="s">
+        <v>264</v>
+      </c>
+      <c r="C631">
+        <v>29.5</v>
+      </c>
+      <c r="D631">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>194</v>
+      </c>
+      <c r="B632" t="s">
+        <v>265</v>
+      </c>
+      <c r="C632">
+        <v>29.5</v>
+      </c>
+      <c r="D632">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>194</v>
+      </c>
+      <c r="B633" t="s">
+        <v>266</v>
+      </c>
+      <c r="C633">
+        <v>29.5</v>
+      </c>
+      <c r="D633">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>194</v>
+      </c>
+      <c r="B634" t="s">
+        <v>267</v>
+      </c>
+      <c r="C634">
+        <v>29.4</v>
+      </c>
+      <c r="D634">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>194</v>
+      </c>
+      <c r="B635" t="s">
+        <v>268</v>
+      </c>
+      <c r="C635">
+        <v>29.4</v>
+      </c>
+      <c r="D635">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>194</v>
+      </c>
+      <c r="B636" t="s">
+        <v>269</v>
+      </c>
+      <c r="C636">
+        <v>29.4</v>
+      </c>
+      <c r="D636">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>194</v>
+      </c>
+      <c r="B637" t="s">
+        <v>270</v>
+      </c>
+      <c r="C637">
+        <v>29.4</v>
+      </c>
+      <c r="D637">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>194</v>
+      </c>
+      <c r="B638" t="s">
+        <v>271</v>
+      </c>
+      <c r="C638">
+        <v>29.4</v>
+      </c>
+      <c r="D638">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>194</v>
+      </c>
+      <c r="B639" t="s">
+        <v>272</v>
+      </c>
+      <c r="C639">
+        <v>29.4</v>
+      </c>
+      <c r="D639">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>194</v>
+      </c>
+      <c r="B640" t="s">
+        <v>273</v>
+      </c>
+      <c r="C640">
+        <v>29.4</v>
+      </c>
+      <c r="D640">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>194</v>
+      </c>
+      <c r="B641" t="s">
+        <v>274</v>
+      </c>
+      <c r="C641">
+        <v>29.4</v>
+      </c>
+      <c r="D641">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>194</v>
+      </c>
+      <c r="B642" t="s">
+        <v>275</v>
+      </c>
+      <c r="C642">
+        <v>29.4</v>
+      </c>
+      <c r="D642">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>194</v>
+      </c>
+      <c r="B643" t="s">
+        <v>276</v>
+      </c>
+      <c r="C643">
+        <v>29.4</v>
+      </c>
+      <c r="D643">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>194</v>
+      </c>
+      <c r="B644" t="s">
+        <v>277</v>
+      </c>
+      <c r="C644">
+        <v>29.4</v>
+      </c>
+      <c r="D644">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>194</v>
+      </c>
+      <c r="B645" t="s">
+        <v>278</v>
+      </c>
+      <c r="C645">
+        <v>29.4</v>
+      </c>
+      <c r="D645">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>194</v>
+      </c>
+      <c r="B646" t="s">
+        <v>279</v>
+      </c>
+      <c r="C646">
+        <v>29.4</v>
+      </c>
+      <c r="D646">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>194</v>
+      </c>
+      <c r="B647" t="s">
+        <v>280</v>
+      </c>
+      <c r="C647">
+        <v>29.4</v>
+      </c>
+      <c r="D647">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>194</v>
+      </c>
+      <c r="B648" t="s">
+        <v>281</v>
+      </c>
+      <c r="C648">
+        <v>29.4</v>
+      </c>
+      <c r="D648">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>194</v>
+      </c>
+      <c r="B649" t="s">
+        <v>282</v>
+      </c>
+      <c r="C649">
+        <v>29.4</v>
+      </c>
+      <c r="D649">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>194</v>
+      </c>
+      <c r="B650" t="s">
+        <v>283</v>
+      </c>
+      <c r="C650">
+        <v>29.4</v>
+      </c>
+      <c r="D650">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>194</v>
+      </c>
+      <c r="B651" t="s">
+        <v>284</v>
+      </c>
+      <c r="C651">
+        <v>29.5</v>
+      </c>
+      <c r="D651">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>194</v>
+      </c>
+      <c r="B652" t="s">
+        <v>285</v>
+      </c>
+      <c r="C652">
+        <v>29.5</v>
+      </c>
+      <c r="D652">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>194</v>
+      </c>
+      <c r="B653" t="s">
+        <v>286</v>
+      </c>
+      <c r="C653">
+        <v>29.5</v>
+      </c>
+      <c r="D653">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>194</v>
+      </c>
+      <c r="B654" t="s">
+        <v>287</v>
+      </c>
+      <c r="C654">
+        <v>29.5</v>
+      </c>
+      <c r="D654">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>194</v>
+      </c>
+      <c r="B655" t="s">
+        <v>288</v>
+      </c>
+      <c r="C655">
+        <v>29.5</v>
+      </c>
+      <c r="D655">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>194</v>
+      </c>
+      <c r="B656" t="s">
+        <v>289</v>
+      </c>
+      <c r="C656">
+        <v>29.5</v>
+      </c>
+      <c r="D656">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>194</v>
+      </c>
+      <c r="B657" t="s">
+        <v>290</v>
+      </c>
+      <c r="C657">
+        <v>29.5</v>
+      </c>
+      <c r="D657">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>194</v>
+      </c>
+      <c r="B658" t="s">
+        <v>291</v>
+      </c>
+      <c r="C658">
+        <v>29.5</v>
+      </c>
+      <c r="D658">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>194</v>
+      </c>
+      <c r="B659" t="s">
+        <v>292</v>
+      </c>
+      <c r="C659">
+        <v>29.5</v>
+      </c>
+      <c r="D659">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>194</v>
+      </c>
+      <c r="B660" t="s">
+        <v>293</v>
+      </c>
+      <c r="C660">
+        <v>29.5</v>
+      </c>
+      <c r="D660">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>194</v>
+      </c>
+      <c r="B661" t="s">
+        <v>294</v>
+      </c>
+      <c r="C661">
+        <v>29.5</v>
+      </c>
+      <c r="D661">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>194</v>
+      </c>
+      <c r="B662" t="s">
+        <v>295</v>
+      </c>
+      <c r="C662">
+        <v>29.5</v>
+      </c>
+      <c r="D662">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>194</v>
+      </c>
+      <c r="B663" t="s">
+        <v>296</v>
+      </c>
+      <c r="C663">
+        <v>29.5</v>
+      </c>
+      <c r="D663">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>194</v>
+      </c>
+      <c r="B664" t="s">
+        <v>297</v>
+      </c>
+      <c r="C664">
+        <v>29.5</v>
+      </c>
+      <c r="D664">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>194</v>
+      </c>
+      <c r="B665" t="s">
+        <v>298</v>
+      </c>
+      <c r="C665">
+        <v>29.5</v>
+      </c>
+      <c r="D665">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>194</v>
+      </c>
+      <c r="B666" t="s">
+        <v>299</v>
+      </c>
+      <c r="C666">
+        <v>29.5</v>
+      </c>
+      <c r="D666">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>194</v>
+      </c>
+      <c r="B667" t="s">
+        <v>300</v>
+      </c>
+      <c r="C667">
+        <v>29.5</v>
+      </c>
+      <c r="D667">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>194</v>
+      </c>
+      <c r="B668" t="s">
+        <v>301</v>
+      </c>
+      <c r="C668">
+        <v>29.4</v>
+      </c>
+      <c r="D668">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>194</v>
+      </c>
+      <c r="B669" t="s">
+        <v>302</v>
+      </c>
+      <c r="C669">
+        <v>29.4</v>
+      </c>
+      <c r="D669">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>194</v>
+      </c>
+      <c r="B670" t="s">
+        <v>303</v>
+      </c>
+      <c r="C670">
+        <v>29.4</v>
+      </c>
+      <c r="D670">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>194</v>
+      </c>
+      <c r="B671" t="s">
+        <v>304</v>
+      </c>
+      <c r="C671">
+        <v>29.4</v>
+      </c>
+      <c r="D671">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>194</v>
+      </c>
+      <c r="B672" t="s">
+        <v>305</v>
+      </c>
+      <c r="C672">
+        <v>29.4</v>
+      </c>
+      <c r="D672">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>194</v>
+      </c>
+      <c r="B673" t="s">
+        <v>306</v>
+      </c>
+      <c r="C673">
+        <v>29.4</v>
+      </c>
+      <c r="D673">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>194</v>
+      </c>
+      <c r="B674" t="s">
+        <v>307</v>
+      </c>
+      <c r="C674">
+        <v>29.4</v>
+      </c>
+      <c r="D674">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>194</v>
+      </c>
+      <c r="B675" t="s">
+        <v>308</v>
+      </c>
+      <c r="C675">
+        <v>29.4</v>
+      </c>
+      <c r="D675">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>194</v>
+      </c>
+      <c r="B676" t="s">
+        <v>309</v>
+      </c>
+      <c r="C676">
+        <v>29.4</v>
+      </c>
+      <c r="D676">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>194</v>
+      </c>
+      <c r="B677" t="s">
+        <v>310</v>
+      </c>
+      <c r="C677">
+        <v>29.4</v>
+      </c>
+      <c r="D677">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>194</v>
+      </c>
+      <c r="B678" t="s">
+        <v>311</v>
+      </c>
+      <c r="C678">
+        <v>29.4</v>
+      </c>
+      <c r="D678">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>194</v>
+      </c>
+      <c r="B679" t="s">
+        <v>312</v>
+      </c>
+      <c r="C679">
+        <v>29.4</v>
+      </c>
+      <c r="D679">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>194</v>
+      </c>
+      <c r="B680" t="s">
+        <v>313</v>
+      </c>
+      <c r="C680">
+        <v>29.4</v>
+      </c>
+      <c r="D680">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>194</v>
+      </c>
+      <c r="B681" t="s">
+        <v>314</v>
+      </c>
+      <c r="C681">
+        <v>29.4</v>
+      </c>
+      <c r="D681">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>194</v>
+      </c>
+      <c r="B682" t="s">
+        <v>315</v>
+      </c>
+      <c r="C682">
+        <v>29.4</v>
+      </c>
+      <c r="D682">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>194</v>
+      </c>
+      <c r="B683" t="s">
+        <v>316</v>
+      </c>
+      <c r="C683">
+        <v>29.4</v>
+      </c>
+      <c r="D683">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>194</v>
+      </c>
+      <c r="B684" t="s">
+        <v>317</v>
+      </c>
+      <c r="C684">
+        <v>29.4</v>
+      </c>
+      <c r="D684">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>194</v>
+      </c>
+      <c r="B685" t="s">
+        <v>318</v>
+      </c>
+      <c r="C685">
+        <v>29.4</v>
+      </c>
+      <c r="D685">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>194</v>
+      </c>
+      <c r="B686" t="s">
+        <v>319</v>
+      </c>
+      <c r="C686">
+        <v>29.4</v>
+      </c>
+      <c r="D686">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>194</v>
+      </c>
+      <c r="B687" t="s">
+        <v>320</v>
+      </c>
+      <c r="C687">
+        <v>29.5</v>
+      </c>
+      <c r="D687">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>194</v>
+      </c>
+      <c r="B688" t="s">
+        <v>321</v>
+      </c>
+      <c r="C688">
+        <v>29.5</v>
+      </c>
+      <c r="D688">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>194</v>
+      </c>
+      <c r="B689" t="s">
+        <v>322</v>
+      </c>
+      <c r="C689">
+        <v>29.5</v>
+      </c>
+      <c r="D689">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>194</v>
+      </c>
+      <c r="B690" t="s">
+        <v>323</v>
+      </c>
+      <c r="C690">
+        <v>29.5</v>
+      </c>
+      <c r="D690">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>194</v>
+      </c>
+      <c r="B691" t="s">
+        <v>324</v>
+      </c>
+      <c r="C691">
+        <v>29.5</v>
+      </c>
+      <c r="D691">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>194</v>
+      </c>
+      <c r="B692" t="s">
+        <v>325</v>
+      </c>
+      <c r="C692">
+        <v>29.5</v>
+      </c>
+      <c r="D692">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>194</v>
+      </c>
+      <c r="B693" t="s">
+        <v>326</v>
+      </c>
+      <c r="C693">
+        <v>29.5</v>
+      </c>
+      <c r="D693">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>194</v>
+      </c>
+      <c r="B694" t="s">
+        <v>327</v>
+      </c>
+      <c r="C694">
+        <v>29.5</v>
+      </c>
+      <c r="D694">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>194</v>
+      </c>
+      <c r="B695" t="s">
+        <v>328</v>
+      </c>
+      <c r="C695">
+        <v>29.5</v>
+      </c>
+      <c r="D695">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>194</v>
+      </c>
+      <c r="B696" t="s">
+        <v>329</v>
+      </c>
+      <c r="C696">
+        <v>29.5</v>
+      </c>
+      <c r="D696">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>194</v>
+      </c>
+      <c r="B697" t="s">
+        <v>330</v>
+      </c>
+      <c r="C697">
+        <v>29.5</v>
+      </c>
+      <c r="D697">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>194</v>
+      </c>
+      <c r="B698" t="s">
+        <v>331</v>
+      </c>
+      <c r="C698">
+        <v>29.5</v>
+      </c>
+      <c r="D698">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>194</v>
+      </c>
+      <c r="B699" t="s">
+        <v>332</v>
+      </c>
+      <c r="C699">
+        <v>29.5</v>
+      </c>
+      <c r="D699">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>194</v>
+      </c>
+      <c r="B700" t="s">
+        <v>333</v>
+      </c>
+      <c r="C700">
+        <v>29.5</v>
+      </c>
+      <c r="D700">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>194</v>
+      </c>
+      <c r="B701" t="s">
+        <v>334</v>
+      </c>
+      <c r="C701">
+        <v>29.5</v>
+      </c>
+      <c r="D701">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>194</v>
+      </c>
+      <c r="B702" t="s">
+        <v>335</v>
+      </c>
+      <c r="C702">
+        <v>29.5</v>
+      </c>
+      <c r="D702">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>194</v>
+      </c>
+      <c r="B703" t="s">
+        <v>336</v>
+      </c>
+      <c r="C703">
+        <v>29.5</v>
+      </c>
+      <c r="D703">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>194</v>
+      </c>
+      <c r="B704" t="s">
+        <v>337</v>
+      </c>
+      <c r="C704">
+        <v>29.5</v>
+      </c>
+      <c r="D704">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>194</v>
+      </c>
+      <c r="B705" t="s">
+        <v>338</v>
+      </c>
+      <c r="C705">
+        <v>29.5</v>
+      </c>
+      <c r="D705">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>194</v>
+      </c>
+      <c r="B706" t="s">
+        <v>339</v>
+      </c>
+      <c r="C706">
+        <v>29.5</v>
+      </c>
+      <c r="D706">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>194</v>
+      </c>
+      <c r="B707" t="s">
+        <v>340</v>
+      </c>
+      <c r="C707">
+        <v>29.5</v>
+      </c>
+      <c r="D707">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>194</v>
+      </c>
+      <c r="B708" t="s">
+        <v>341</v>
+      </c>
+      <c r="C708">
+        <v>29.5</v>
+      </c>
+      <c r="D708">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>194</v>
+      </c>
+      <c r="B709" t="s">
+        <v>342</v>
+      </c>
+      <c r="C709">
+        <v>29.5</v>
+      </c>
+      <c r="D709">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>194</v>
+      </c>
+      <c r="B710" t="s">
+        <v>343</v>
+      </c>
+      <c r="C710">
+        <v>29.5</v>
+      </c>
+      <c r="D710">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>194</v>
+      </c>
+      <c r="B711" t="s">
+        <v>344</v>
+      </c>
+      <c r="C711">
+        <v>29.5</v>
+      </c>
+      <c r="D711">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>194</v>
+      </c>
+      <c r="B712" t="s">
+        <v>345</v>
+      </c>
+      <c r="C712">
+        <v>29.5</v>
+      </c>
+      <c r="D712">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>194</v>
+      </c>
+      <c r="B713" t="s">
+        <v>346</v>
+      </c>
+      <c r="C713">
+        <v>29.5</v>
+      </c>
+      <c r="D713">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>194</v>
+      </c>
+      <c r="B714" t="s">
+        <v>347</v>
+      </c>
+      <c r="C714">
+        <v>29.5</v>
+      </c>
+      <c r="D714">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>194</v>
+      </c>
+      <c r="B715" t="s">
+        <v>348</v>
+      </c>
+      <c r="C715">
+        <v>29.5</v>
+      </c>
+      <c r="D715">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>194</v>
+      </c>
+      <c r="B716" t="s">
+        <v>349</v>
+      </c>
+      <c r="C716">
+        <v>29.5</v>
+      </c>
+      <c r="D716">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>194</v>
+      </c>
+      <c r="B717" t="s">
+        <v>350</v>
+      </c>
+      <c r="C717">
+        <v>29.5</v>
+      </c>
+      <c r="D717">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>194</v>
+      </c>
+      <c r="B718" t="s">
+        <v>351</v>
+      </c>
+      <c r="C718">
+        <v>29.5</v>
+      </c>
+      <c r="D718">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>194</v>
+      </c>
+      <c r="B719" t="s">
+        <v>352</v>
+      </c>
+      <c r="C719">
+        <v>29.5</v>
+      </c>
+      <c r="D719">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>194</v>
+      </c>
+      <c r="B720" t="s">
+        <v>353</v>
+      </c>
+      <c r="C720">
+        <v>29.5</v>
+      </c>
+      <c r="D720">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>194</v>
+      </c>
+      <c r="B721" t="s">
+        <v>354</v>
+      </c>
+      <c r="C721">
+        <v>29.5</v>
+      </c>
+      <c r="D721">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>194</v>
+      </c>
+      <c r="B722" t="s">
+        <v>355</v>
+      </c>
+      <c r="C722">
+        <v>29.5</v>
+      </c>
+      <c r="D722">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>194</v>
+      </c>
+      <c r="B723" t="s">
+        <v>356</v>
+      </c>
+      <c r="C723">
+        <v>29.5</v>
+      </c>
+      <c r="D723">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>194</v>
+      </c>
+      <c r="B724" t="s">
+        <v>357</v>
+      </c>
+      <c r="C724">
+        <v>29.5</v>
+      </c>
+      <c r="D724">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>194</v>
+      </c>
+      <c r="B725" t="s">
+        <v>358</v>
+      </c>
+      <c r="C725">
+        <v>29.5</v>
+      </c>
+      <c r="D725">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>194</v>
+      </c>
+      <c r="B726" t="s">
+        <v>359</v>
+      </c>
+      <c r="C726">
+        <v>29.5</v>
+      </c>
+      <c r="D726">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>194</v>
+      </c>
+      <c r="B727" t="s">
+        <v>360</v>
+      </c>
+      <c r="C727">
+        <v>29.5</v>
+      </c>
+      <c r="D727">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>194</v>
+      </c>
+      <c r="B728" t="s">
+        <v>361</v>
+      </c>
+      <c r="C728">
+        <v>29.5</v>
+      </c>
+      <c r="D728">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>194</v>
+      </c>
+      <c r="B729" t="s">
+        <v>362</v>
+      </c>
+      <c r="C729">
+        <v>29.5</v>
+      </c>
+      <c r="D729">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>194</v>
+      </c>
+      <c r="B730" t="s">
+        <v>363</v>
+      </c>
+      <c r="C730">
+        <v>29.5</v>
+      </c>
+      <c r="D730">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>194</v>
+      </c>
+      <c r="B731" t="s">
+        <v>364</v>
+      </c>
+      <c r="C731">
+        <v>29.5</v>
+      </c>
+      <c r="D731">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>194</v>
+      </c>
+      <c r="B732" t="s">
+        <v>365</v>
+      </c>
+      <c r="C732">
+        <v>29.5</v>
+      </c>
+      <c r="D732">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>194</v>
+      </c>
+      <c r="B733" t="s">
+        <v>366</v>
+      </c>
+      <c r="C733">
+        <v>29.5</v>
+      </c>
+      <c r="D733">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>194</v>
+      </c>
+      <c r="B734" t="s">
+        <v>367</v>
+      </c>
+      <c r="C734">
+        <v>29.5</v>
+      </c>
+      <c r="D734">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>194</v>
+      </c>
+      <c r="B735" t="s">
+        <v>368</v>
+      </c>
+      <c r="C735">
+        <v>29.5</v>
+      </c>
+      <c r="D735">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>194</v>
+      </c>
+      <c r="B736" t="s">
+        <v>369</v>
+      </c>
+      <c r="C736">
+        <v>29.5</v>
+      </c>
+      <c r="D736">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>194</v>
+      </c>
+      <c r="B737" t="s">
+        <v>370</v>
+      </c>
+      <c r="C737">
+        <v>29.5</v>
+      </c>
+      <c r="D737">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>194</v>
+      </c>
+      <c r="B738" t="s">
+        <v>371</v>
+      </c>
+      <c r="C738">
+        <v>29.5</v>
+      </c>
+      <c r="D738">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>194</v>
+      </c>
+      <c r="B739" t="s">
+        <v>372</v>
+      </c>
+      <c r="C739">
+        <v>29.5</v>
+      </c>
+      <c r="D739">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>194</v>
+      </c>
+      <c r="B740" t="s">
+        <v>373</v>
+      </c>
+      <c r="C740">
+        <v>29.5</v>
+      </c>
+      <c r="D740">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>194</v>
+      </c>
+      <c r="B741" t="s">
+        <v>374</v>
+      </c>
+      <c r="C741">
+        <v>29.5</v>
+      </c>
+      <c r="D741">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>194</v>
+      </c>
+      <c r="B742" t="s">
+        <v>375</v>
+      </c>
+      <c r="C742">
+        <v>29.5</v>
+      </c>
+      <c r="D742">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>194</v>
+      </c>
+      <c r="B743" t="s">
+        <v>376</v>
+      </c>
+      <c r="C743">
+        <v>29.5</v>
+      </c>
+      <c r="D743">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>194</v>
+      </c>
+      <c r="B744" t="s">
+        <v>377</v>
+      </c>
+      <c r="C744">
+        <v>29.5</v>
+      </c>
+      <c r="D744">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>194</v>
+      </c>
+      <c r="B745" t="s">
+        <v>378</v>
+      </c>
+      <c r="C745">
+        <v>29.5</v>
+      </c>
+      <c r="D745">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>194</v>
+      </c>
+      <c r="B746" t="s">
+        <v>379</v>
+      </c>
+      <c r="C746">
+        <v>29.6</v>
+      </c>
+      <c r="D746">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>194</v>
+      </c>
+      <c r="B747" t="s">
+        <v>380</v>
+      </c>
+      <c r="C747">
+        <v>29.6</v>
+      </c>
+      <c r="D747">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>194</v>
+      </c>
+      <c r="B748" t="s">
+        <v>381</v>
+      </c>
+      <c r="C748">
+        <v>29.6</v>
+      </c>
+      <c r="D748">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>194</v>
+      </c>
+      <c r="B749" t="s">
+        <v>382</v>
+      </c>
+      <c r="C749">
+        <v>29.6</v>
+      </c>
+      <c r="D749">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>194</v>
+      </c>
+      <c r="B750" t="s">
+        <v>383</v>
+      </c>
+      <c r="C750">
+        <v>29.7</v>
+      </c>
+      <c r="D750">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>194</v>
+      </c>
+      <c r="B751" t="s">
+        <v>384</v>
+      </c>
+      <c r="C751">
+        <v>29.7</v>
+      </c>
+      <c r="D751">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>194</v>
+      </c>
+      <c r="B752" t="s">
+        <v>385</v>
+      </c>
+      <c r="C752">
+        <v>29.7</v>
+      </c>
+      <c r="D752">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>194</v>
+      </c>
+      <c r="B753" t="s">
+        <v>386</v>
+      </c>
+      <c r="C753">
+        <v>29.7</v>
+      </c>
+      <c r="D753">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>194</v>
+      </c>
+      <c r="B754" t="s">
+        <v>387</v>
+      </c>
+      <c r="C754">
+        <v>29.7</v>
+      </c>
+      <c r="D754">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>194</v>
+      </c>
+      <c r="B755" t="s">
+        <v>388</v>
+      </c>
+      <c r="C755">
+        <v>29.7</v>
+      </c>
+      <c r="D755">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>194</v>
+      </c>
+      <c r="B756" t="s">
+        <v>389</v>
+      </c>
+      <c r="C756">
+        <v>33.1</v>
+      </c>
+      <c r="D756">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>194</v>
+      </c>
+      <c r="B757" t="s">
+        <v>390</v>
+      </c>
+      <c r="C757">
+        <v>33.1</v>
+      </c>
+      <c r="D757">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>194</v>
+      </c>
+      <c r="B758" t="s">
+        <v>391</v>
+      </c>
+      <c r="C758">
+        <v>33.2</v>
+      </c>
+      <c r="D758">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>194</v>
+      </c>
+      <c r="B759" t="s">
+        <v>392</v>
+      </c>
+      <c r="C759">
+        <v>33.2</v>
+      </c>
+      <c r="D759">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>194</v>
+      </c>
+      <c r="B760" t="s">
+        <v>393</v>
+      </c>
+      <c r="C760">
+        <v>33.2</v>
+      </c>
+      <c r="D760">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
